--- a/storage/app/public/data/test.xlsx
+++ b/storage/app/public/data/test.xlsx
@@ -576,7 +576,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
